--- a/data/trans_bre/P1416-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1416-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.99122124088054</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.386540017150237</v>
+        <v>6.386540017150234</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3754784048055427</v>
@@ -649,7 +649,7 @@
         <v>0.6626919012845048</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.6810400044616671</v>
+        <v>0.6810400044616667</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.188033535794686</v>
+        <v>-1.169864281419352</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3264065331980833</v>
+        <v>0.7771016505512878</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.001163340405194478</v>
+        <v>0.07060810188810336</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.391521696185029</v>
+        <v>2.220410226786015</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1529342988149955</v>
+        <v>-0.1421715239580474</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03892757071099855</v>
+        <v>0.09203681150814429</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.01648372091791724</v>
+        <v>-0.003665334401963309</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1998062960541726</v>
+        <v>0.1867178251252111</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.375095385384971</v>
+        <v>6.998178141728283</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.272597700800437</v>
+        <v>8.972059048189299</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.359669134927799</v>
+        <v>8.431537775442214</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.58269016349309</v>
+        <v>10.36680620564542</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.221398927385456</v>
+        <v>1.184857541030547</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.002338688521213</v>
+        <v>2.179554982190322</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.984467422750929</v>
+        <v>1.876731965285728</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.44732583866287</v>
+        <v>1.447819282948159</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.237398028270123</v>
+        <v>2.278340221819488</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.375677432320065</v>
+        <v>1.71592784071842</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3806125808039757</v>
+        <v>0.2946497010161236</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.6557963115061911</v>
+        <v>-0.3303915506379232</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2314478041194736</v>
+        <v>0.2100312452028884</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1320982225546252</v>
+        <v>0.2009786928979463</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03759010180191476</v>
+        <v>0.009828151082240768</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.05663367867870057</v>
+        <v>-0.02661384707130639</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.34620494452383</v>
+        <v>11.3298706028851</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.87256887437829</v>
+        <v>10.85055301423093</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.791110328388189</v>
+        <v>8.52329424037938</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.743531235475677</v>
+        <v>7.699926086939271</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.057177191031349</v>
+        <v>2.065671282897175</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.442508402437878</v>
+        <v>2.814503576764046</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.344383775557598</v>
+        <v>1.989892425108865</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9750154939326535</v>
+        <v>1.039209297547309</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>6.780591962825571</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.785159882931998</v>
+        <v>1.785159882931997</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.1957604346817814</v>
@@ -849,7 +849,7 @@
         <v>1.540464536347491</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1475107463541293</v>
+        <v>0.1475107463541292</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.437845575415127</v>
+        <v>-5.24049880343441</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.041254395619711</v>
+        <v>-2.294708018555425</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.99148813267131</v>
+        <v>1.760459731283809</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.93838524265811</v>
+        <v>-2.997457359172079</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6509601860838623</v>
+        <v>-0.6137919371275558</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3130427383491687</v>
+        <v>-0.3114599244933042</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.346168758141815</v>
+        <v>0.2829243507246583</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2061784732501937</v>
+        <v>-0.2187285825510878</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.597693282643402</v>
+        <v>3.30124987635055</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.960442081403968</v>
+        <v>5.599548073854558</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.65440551291928</v>
+        <v>12.52731627691696</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.061764156668235</v>
+        <v>7.505492899045255</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5929919649826242</v>
+        <v>0.5650573190142232</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.307501680438106</v>
+        <v>1.199065130631165</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.747309644101684</v>
+        <v>3.562235261588166</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7336707360545149</v>
+        <v>0.7518420269114597</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.337273578236841</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.133230806340105</v>
+        <v>4.133230806340109</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6789408514276993</v>
@@ -949,7 +949,7 @@
         <v>1.225403006918432</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.5183127042759539</v>
+        <v>0.5183127042759544</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.396868539403447</v>
+        <v>1.576605296568678</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.504723694653694</v>
+        <v>1.413599654561815</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.13736027506328</v>
+        <v>2.296785533506788</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.301501157621976</v>
+        <v>1.379086612122554</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.18727839246995</v>
+        <v>0.2175545964923311</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.242051025279331</v>
+        <v>0.2444492622246842</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4887817568071402</v>
+        <v>0.5215991575815567</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1277580478569642</v>
+        <v>0.1541503610578173</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.695979463565199</v>
+        <v>6.886118348666121</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.68173467927481</v>
+        <v>6.407098677402227</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.497487175668798</v>
+        <v>6.537588382929507</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.966841478995148</v>
+        <v>6.761730912652532</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.31825016752214</v>
+        <v>1.337283414235118</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.747902951729852</v>
+        <v>1.658144743614615</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.312595795862485</v>
+        <v>2.197673492497199</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.027422444828495</v>
+        <v>1.023748831663019</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.621315818937654</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.526308767247644</v>
+        <v>1.526308767247647</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.932734934132856</v>
@@ -1049,7 +1049,7 @@
         <v>0.5849118561698083</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1529751454092921</v>
+        <v>0.1529751454092924</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.576321330971212</v>
+        <v>1.415646316129861</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.708858577882169</v>
+        <v>-1.693085900363864</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07978668438263067</v>
+        <v>0.2755737608649502</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.312642353003799</v>
+        <v>-2.253104590635854</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1670427881311999</v>
+        <v>0.172681696637996</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.326624924311383</v>
+        <v>-0.3384357841190781</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.008366304831266795</v>
+        <v>0.03923438725167214</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1800411911589022</v>
+        <v>-0.1867269207875885</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.874045569660243</v>
+        <v>8.669742300533123</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.770239331882726</v>
+        <v>2.808425008962163</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.27998240018481</v>
+        <v>5.097628515345067</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.827452950047509</v>
+        <v>4.636703527670861</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.388097563897366</v>
+        <v>2.406562957464707</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9985526474416502</v>
+        <v>1.046579453710019</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.5314074601704</v>
+        <v>1.54008518350929</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6430994790498349</v>
+        <v>0.6031175943592323</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-3.429471692866532</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-6.167261723906845</v>
+        <v>-6.16726172390685</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03323637269301679</v>
@@ -1149,7 +1149,7 @@
         <v>-0.3386612298383633</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.4372447710527687</v>
+        <v>-0.4372447710527689</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.623688090179181</v>
+        <v>-3.197139814646471</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-4.775322876825628</v>
+        <v>-4.853256588488812</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-7.364479528821604</v>
+        <v>-7.407527971926228</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-15.97789544763677</v>
+        <v>-14.49157083427188</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3393878696818461</v>
+        <v>-0.3060487315622922</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4570685110707566</v>
+        <v>-0.4544313467091307</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.550776033478131</v>
+        <v>-0.5500005752969652</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6914975041252085</v>
+        <v>-0.6754272266077285</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.251711215767282</v>
+        <v>3.379990386834095</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.305879869781185</v>
+        <v>2.784061008535976</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1192025902278114</v>
+        <v>0.7102032447549574</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-0.06654844050323158</v>
+        <v>0.3721898691248319</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6167747028926548</v>
+        <v>0.687694192524673</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4800641209783735</v>
+        <v>0.6538158463781309</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02801422018210602</v>
+        <v>0.1116884945643779</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.005270938933591955</v>
+        <v>0.07742454247165023</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>2.999593402780466</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.961362002760431</v>
+        <v>1.961362002760429</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4304900847854436</v>
@@ -1249,7 +1249,7 @@
         <v>0.6064280497169323</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2010468223484266</v>
+        <v>0.2010468223484265</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.62496231893687</v>
+        <v>1.599821881582418</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.003769401276844</v>
+        <v>0.8452195793145295</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.758119110255092</v>
+        <v>1.864138363140569</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4860102659630267</v>
+        <v>0.3191441117358343</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2115571260788812</v>
+        <v>0.2221859152784543</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1824426647368367</v>
+        <v>0.1414783010660515</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3245646199827547</v>
+        <v>0.3484702481199093</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.04688241837864048</v>
+        <v>0.02883394814627729</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.269098367910685</v>
+        <v>4.286598792314902</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.381024063880953</v>
+        <v>3.391400454777514</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.20363741405487</v>
+        <v>4.25377217227621</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.457462371742698</v>
+        <v>3.273132788149892</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.7099231628473313</v>
+        <v>0.7049408516496938</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7353081844637209</v>
+        <v>0.7192986494619902</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9524545082691231</v>
+        <v>0.9861943771546458</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.3944808400591913</v>
+        <v>0.3665751549117909</v>
       </c>
     </row>
     <row r="25">
